--- a/data/trans_dic/P1806_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,7</t>
+          <t>2,12; 5,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,12</t>
+          <t>4,16; 8,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,09</t>
+          <t>3,51; 5,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,38</t>
+          <t>2,09; 5,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,19</t>
+          <t>5,01; 9,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,34</t>
+          <t>3,84; 6,56</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,91</t>
+          <t>0,15; 1,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,66</t>
+          <t>5,13; 11,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,47</t>
+          <t>0,95; 3,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,2</t>
+          <t>1,41; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,49</t>
+          <t>1,94; 5,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,93</t>
+          <t>2,09; 3,92</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,56</t>
+          <t>0,66; 2,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,87</t>
+          <t>3,16; 5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,24</t>
+          <t>2,56; 4,28</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,97</t>
+          <t>0,84; 7,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,47</t>
+          <t>2,77; 5,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,1</t>
+          <t>2,67; 5,35</t>
         </is>
       </c>
     </row>
@@ -879,12 +880,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,91</t>
+          <t>1,71; 2,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,61</t>
+          <t>3,89; 5,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un podólogo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17847</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26214</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44061</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10723; 28631</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18632; 36338</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33401; 56004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26713</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9454; 23892</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19167; 36635</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>32040; 54760</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5957</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13019</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18976</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1020; 12840</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8559; 18462</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7901; 29701</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22845</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38740</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61585</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14583; 34131</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18923; 53326</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42076; 78831</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6291</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>37781</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44072</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3157; 12434</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26583; 48635</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33652; 56341</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7735</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29481</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>37216</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2018; 18799</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21040; 40596</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26780; 53557</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>76175</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>171949</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>248124</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>57877; 96786</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>139005; 196144</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>209788; 281616</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1806_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
